--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F6CFA-E094-4C6D-AAC3-45B7BDD65A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC6D05-06DE-48AF-AC57-4DF36E239710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>relic5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,9 +109,6 @@
   </si>
   <si>
     <t>스테이지렐릭5</t>
-  </si>
-  <si>
-    <t>스테이지렐릭6</t>
   </si>
   <si>
     <t>prob</t>
@@ -523,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,7 +529,8 @@
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,10 +563,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -601,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -621,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>7.5</v>
@@ -630,13 +624,13 @@
         <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -656,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>1.4999999999999999E-2</v>
@@ -665,13 +659,13 @@
         <v>70000</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>30000</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -691,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>5.0000000000000001E-4</v>
@@ -700,13 +694,13 @@
         <v>40000</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <v>20000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -735,53 +729,18 @@
         <v>50000</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>30000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>20000</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC6D05-06DE-48AF-AC57-4DF36E239710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209BE5B-85E5-42FE-BCB4-238FA080E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -94,24 +94,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지렐릭1</t>
+    <t>prob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지렐릭2</t>
+    <t>푸른 등불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지렐릭3</t>
+    <t>붉은 등불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지렐릭4</t>
+    <t>하급 허리장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지렐릭5</t>
+    <t>중급 허리장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prob</t>
+    <t>영혼의 구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +522,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -577,25 +580,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="1">
         <v>11</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>70000</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -612,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>7.5</v>
+        <v>0.02</v>
       </c>
       <c r="F3" s="2">
         <v>50000</v>
@@ -627,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -647,28 +650,28 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>70000</v>
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50000</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>30000</v>
+      <c r="H4" s="2">
+        <v>50000</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -682,28 +685,28 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.02</v>
       </c>
       <c r="F5" s="2">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -717,28 +720,28 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="1">
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <v>30000</v>
+      <c r="H6" s="2">
+        <v>50000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209BE5B-85E5-42FE-BCB4-238FA080E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802554A6-A5FD-4966-B5DD-C850A9AA42E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-840" yWindow="2370" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802554A6-A5FD-4966-B5DD-C850A9AA42E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A37D7B-CAC0-4DCC-B782-B37F28680FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="2370" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2940" yWindow="870" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>영혼의 구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 요괴 구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,7 +737,7 @@
         <v>0.01</v>
       </c>
       <c r="F6" s="2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -744,6 +752,41 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A37D7B-CAC0-4DCC-B782-B37F28680FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D542024-AA61-4F62-B6F9-D32A3B2C6AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="870" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
         <v>0.01</v>
       </c>
       <c r="F6" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D542024-AA61-4F62-B6F9-D32A3B2C6AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F04F6-3CBF-417A-BD78-272C283898A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F04F6-3CBF-417A-BD78-272C283898A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92C05B8-6AE8-4938-85D6-35380F26D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1245" yWindow="4050" windowWidth="29880" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92C05B8-6AE8-4938-85D6-35380F26D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62955874-78CC-4447-B1DC-B110ACD3AED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4050" windowWidth="29880" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62955874-78CC-4447-B1DC-B110ACD3AED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9465405-836C-47A0-B28A-5AD6C99D7481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9465405-836C-47A0-B28A-5AD6C99D7481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52844FF1-C530-4392-9360-3E3D3CC96EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52844FF1-C530-4392-9360-3E3D3CC96EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD310C6-63DD-48C7-B630-E5130C262858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD310C6-63DD-48C7-B630-E5130C262858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE349D-D1EE-4DFA-9903-11B9617F12BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE349D-D1EE-4DFA-9903-11B9617F12BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45501C91-8E8F-4C89-AB64-82B82E8FE08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45501C91-8E8F-4C89-AB64-82B82E8FE08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1B495-5CBD-43A7-BD5B-B72B012D9AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="11490" yWindow="3975" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>8000000</v>
+        <v>30000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1B495-5CBD-43A7-BD5B-B72B012D9AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A6CD68-B969-4388-B849-016E753BA893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="3975" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7" s="2">
-        <v>30000000</v>
+        <v>50000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A6CD68-B969-4388-B849-016E753BA893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB9BF09-4082-4BF9-B2A5-893ADAA2E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F7" s="2">
         <v>50000000</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB9BF09-4082-4BF9-B2A5-893ADAA2E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F972D7B-CEAF-48E1-B6EF-DBA3D1DAEB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F7" s="2">
         <v>50000000</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F972D7B-CEAF-48E1-B6EF-DBA3D1DAEB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C02C1-476D-4265-8E45-A9D3E35C8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C02C1-476D-4265-8E45-A9D3E35C8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178144A-4DF5-4159-931F-C765C64F2E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -772,7 +772,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F7" s="2">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178144A-4DF5-4159-931F-C765C64F2E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250E576-3002-45B9-B960-B355CE915E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F7" s="2">
         <v>100000000</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250E576-3002-45B9-B960-B355CE915E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2072B62D-4BD9-4CF5-8B0D-7CEF710CBB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5670" yWindow="2040" windowWidth="21450" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>1E-3</v>
       </c>
       <c r="F7" s="2">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2072B62D-4BD9-4CF5-8B0D-7CEF710CBB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C51E0-F92E-4D68-810B-02055F6FD8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2040" windowWidth="21450" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>50000</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="2">
         <v>50000</v>
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="2">
         <v>50000</v>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="2">
         <v>50000</v>
@@ -734,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="2">
         <v>200000</v>
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F7" s="2">
         <v>200000000</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069C7426-196E-4F99-893C-AF7796EA9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EF8EE3-E429-4249-983C-BA29A39CD852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="630" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4590" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <t>relic8</t>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>requireGoods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,18 @@
   </si>
   <si>
     <t>isTotalSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 전설검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +578,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,13 +634,13 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -928,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -940,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="1">
         <v>400000</v>
@@ -975,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
@@ -987,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
         <v>400000</v>
@@ -1022,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
@@ -1034,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="1">
         <v>250000</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EF8EE3-E429-4249-983C-BA29A39CD852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C1F0A2-F256-4C8F-9542-C84E53B9A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,10 +575,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C1F0A2-F256-4C8F-9542-C84E53B9A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D2A97-9645-46FB-AE01-D36B863F4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,17 @@
   </si>
   <si>
     <t>도깨비 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic9</t>
+  </si>
+  <si>
+    <t>SumiFire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,12 +584,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,6 +1059,53 @@
         <v>250000</v>
       </c>
       <c r="O10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1">
+        <v>500000</v>
+      </c>
+      <c r="O11" s="1" t="b">
         <v>1</v>
       </c>
     </row>
